--- a/InputData/elec/FoSYCRpUNL/Frac of Start Year Cap Ret per Unit Net Loss.xlsx
+++ b/InputData/elec/FoSYCRpUNL/Frac of Start Year Cap Ret per Unit Net Loss.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\FoSYCRpUNL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\FoSYCRpUNL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FA9887-8ACA-47D6-9CE1-EA2836096F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F040399-342F-47AC-B856-43A203A0193C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="735" windowWidth="22860" windowHeight="13965" xr2:uid="{67B50A2A-83E2-40E1-A966-DC033ADD8EBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{67B50A2A-83E2-40E1-A966-DC033ADD8EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B7A547-DAFD-4CBC-90C6-A86A1413C282}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -508,7 +510,9 @@
   </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -528,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -544,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/FoSYCRpUNL/Frac of Start Year Cap Ret per Unit Net Loss.xlsx
+++ b/InputData/elec/FoSYCRpUNL/Frac of Start Year Cap Ret per Unit Net Loss.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\FoSYCRpUNL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\FoSYCRpUNL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F040399-342F-47AC-B856-43A203A0193C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F97DB0-C2E8-4CAD-A2DA-0DC77CFBD6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{67B50A2A-83E2-40E1-A966-DC033ADD8EBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{67B50A2A-83E2-40E1-A966-DC033ADD8EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B14" sqref="B14:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/FoSYCRpUNL/Frac of Start Year Cap Ret per Unit Net Loss.xlsx
+++ b/InputData/elec/FoSYCRpUNL/Frac of Start Year Cap Ret per Unit Net Loss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\FoSYCRpUNL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F97DB0-C2E8-4CAD-A2DA-0DC77CFBD6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DAAA1E-87FC-4017-9A2A-16F5ADC22029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{67B50A2A-83E2-40E1-A966-DC033ADD8EBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{67B50A2A-83E2-40E1-A966-DC033ADD8EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">Sources: </t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>Unit: 1/($/(MWh))</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -474,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B7A547-DAFD-4CBC-90C6-A86A1413C282}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
@@ -508,10 +526,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,6 +681,54 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/InputData/elec/FoSYCRpUNL/Frac of Start Year Cap Ret per Unit Net Loss.xlsx
+++ b/InputData/elec/FoSYCRpUNL/Frac of Start Year Cap Ret per Unit Net Loss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\FoSYCRpUNL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\FoSYCRpUNL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DAAA1E-87FC-4017-9A2A-16F5ADC22029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D98A62-34C0-4A2F-8CFE-F116186280A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{67B50A2A-83E2-40E1-A966-DC033ADD8EBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{67B50A2A-83E2-40E1-A966-DC033ADD8EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Sources: </t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>hydrogen</t>
+  </si>
+  <si>
+    <t>Certain plant types are less prone to economic retirement because they are maintained for local reliability purposes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These includes: natural gas steam turbines, natural gas peakers, and petroleum plants. For these plant types we set the </t>
+  </si>
+  <si>
+    <t>retirement fraction very low.</t>
   </si>
 </sst>
 </file>
@@ -490,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B7A547-DAFD-4CBC-90C6-A86A1413C282}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,6 +523,21 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -529,7 +553,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -558,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -566,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -574,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -582,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,7 +614,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,7 +638,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -622,7 +646,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -646,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,7 +678,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,7 +710,7 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -694,7 +718,7 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -702,7 +726,7 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -710,7 +734,7 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -718,7 +742,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -726,7 +750,7 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>5.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/FoSYCRpUNL/Frac of Start Year Cap Ret per Unit Net Loss.xlsx
+++ b/InputData/elec/FoSYCRpUNL/Frac of Start Year Cap Ret per Unit Net Loss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\FoSYCRpUNL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\FoSYCRpUNL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D98A62-34C0-4A2F-8CFE-F116186280A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DFE4BFB-8694-4AD5-BAC6-9E0AA280B702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{67B50A2A-83E2-40E1-A966-DC033ADD8EBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{67B50A2A-83E2-40E1-A966-DC033ADD8EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Sources: </t>
   </si>
@@ -120,9 +120,6 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
     <t>Certain plant types are less prone to economic retirement because they are maintained for local reliability purposes.</t>
   </si>
   <si>
@@ -130,13 +127,19 @@
   </si>
   <si>
     <t>retirement fraction very low.</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +159,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,10 +191,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B7A547-DAFD-4CBC-90C6-A86A1413C282}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -527,17 +540,17 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -550,10 +563,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,10 +759,19 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
+      <c r="A24" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B24">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <f>B4</f>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>

--- a/InputData/elec/FoSYCRpUNL/Frac of Start Year Cap Ret per Unit Net Loss.xlsx
+++ b/InputData/elec/FoSYCRpUNL/Frac of Start Year Cap Ret per Unit Net Loss.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\FoSYCRpUNL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\FoSYCRpUNL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DFE4BFB-8694-4AD5-BAC6-9E0AA280B702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D66019-693C-4B78-9A52-988FFA905947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{67B50A2A-83E2-40E1-A966-DC033ADD8EBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{67B50A2A-83E2-40E1-A966-DC033ADD8EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B7A547-DAFD-4CBC-90C6-A86A1413C282}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -565,8 +565,8 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,7 +699,7 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -771,8 +771,7 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <f>B4</f>
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
